--- a/defaultupload.xlsx
+++ b/defaultupload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -41,13 +41,16 @@
     <t>title</t>
   </si>
   <si>
-    <t>brand</t>
+    <t>brand_id</t>
   </si>
   <si>
     <t>category_id</t>
   </si>
   <si>
     <t>subcategory_id</t>
+  </si>
+  <si>
+    <t>img/</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +431,11 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
